--- a/src/main/resources/server_issue.xlsx
+++ b/src/main/resources/server_issue.xlsx
@@ -4966,7 +4966,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -5121,7 +5121,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5447,13 +5447,13 @@
   <dimension ref="A1:XFD111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="59.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="13" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.375" customWidth="1"/>
     <col min="5" max="5" width="74.25" customWidth="1"/>
@@ -25652,7 +25652,7 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="2"/>
     <col min="4" max="4" width="24.125" style="3" customWidth="1"/>
     <col min="5" max="5" width="71.5" style="1" customWidth="1"/>
